--- a/Database Model.xlsx
+++ b/Database Model.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptual Model" sheetId="2" r:id="rId1"/>
@@ -65,6 +65,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDCFF85"/>
+      <color rgb="FFFDD49D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1945,8 +1951,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>560120</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1957,8 +1963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5323485" y="3856450"/>
-          <a:ext cx="2510271" cy="455777"/>
+          <a:off x="5351194" y="3856450"/>
+          <a:ext cx="2524126" cy="544100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1996,6 +2002,20 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:t>Transaction ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>Card ID</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -2027,14 +2047,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>474394</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139972</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>560120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>95252</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2045,8 +2065,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5323485" y="4330972"/>
-          <a:ext cx="2510271" cy="812530"/>
+          <a:off x="5351194" y="4410075"/>
+          <a:ext cx="2524126" cy="828677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2526,13 +2546,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>402771</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>488496</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2543,8 +2563,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13404396" y="5610225"/>
-          <a:ext cx="2562225" cy="609600"/>
+          <a:off x="13131635" y="5610224"/>
+          <a:ext cx="2510270" cy="693593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2585,14 +2605,8 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Event ID</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-          </a:endParaRPr>
+            <a:t>Attendance ID</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
@@ -2608,7 +2622,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Member ID</a:t>
+            <a:t>Event ID</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2631,7 +2645,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>Member ID</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -2656,6 +2670,29 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2666,13 +2703,13 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>402771</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>185304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>488496</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>109104</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2683,8 +2720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13404396" y="6229350"/>
-          <a:ext cx="2562225" cy="304800"/>
+          <a:off x="13131635" y="6281304"/>
+          <a:ext cx="2510270" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2986,6 +3023,20 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:t>MemberNumber</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>First Name</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -3126,7 +3177,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Current</a:t>
+            <a:t>CurrentFlag</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -4172,7 +4223,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Current</a:t>
+            <a:t>CurrentFlag</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -4668,13 +4719,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>474395</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>37605</xdr:rowOff>
+      <xdr:rowOff>37604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>528824</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83839</xdr:rowOff>
+      <xdr:rowOff>127999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4686,8 +4737,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5323486" y="1752105"/>
-          <a:ext cx="54429" cy="2332234"/>
+          <a:off x="5351195" y="1752104"/>
+          <a:ext cx="54429" cy="2376395"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4778,7 +4829,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>436789</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>51521</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4791,7 +4842,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
           <a:off x="13131635" y="4073979"/>
-          <a:ext cx="34018" cy="1841046"/>
+          <a:ext cx="34018" cy="1883042"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4830,7 +4881,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>402771</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>51520</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4843,7 +4894,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
           <a:off x="9207707" y="3107871"/>
-          <a:ext cx="3923928" cy="2807153"/>
+          <a:ext cx="3923928" cy="2849149"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -5021,6 +5072,4463 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>527958</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>269918</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8394487" y="4039466"/>
+          <a:ext cx="1557313" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>PaymentCard</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172316</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>126300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19916</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7979229" y="4363316"/>
+          <a:ext cx="2510271" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>CardID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (FK) </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>126300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7979229" y="4982441"/>
+          <a:ext cx="2510271" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>CardType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(45)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>CardNumber</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(20)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>CardExpiration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> date</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>276102</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>189139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>11258</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16125702" y="3808639"/>
+          <a:ext cx="1563956" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Renewal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>422441</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>494312</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Text Box 9"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15662441" y="4132489"/>
+          <a:ext cx="2510271" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>RenewalID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>422441</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>494312</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>112939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Text Box 10"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15662441" y="4503964"/>
+          <a:ext cx="2510271" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>RenewalType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(15)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>RenewalPrice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> smallmoney</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>480332</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>162111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>215488</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Text Box 11"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8405132" y="6448611"/>
+          <a:ext cx="1563956" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Transactions</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71871</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Text Box 12"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7960179" y="6772461"/>
+          <a:ext cx="2521156" cy="602610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>TransactionID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>int (PK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>CardID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71871</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Text Box 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7960179" y="7383053"/>
+          <a:ext cx="2521156" cy="812530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>TransactionDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> date</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Charge</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> smallmoney</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Result</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(10)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>380628</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>115784</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Text Box 14"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16230228" y="6408965"/>
+          <a:ext cx="1563956" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Events</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>526968</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>598838</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Text Box 15"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15766968" y="6732815"/>
+          <a:ext cx="2510270" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EventID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>HostID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>526968</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>598838</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>189140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Text Box 16"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15766968" y="7247165"/>
+          <a:ext cx="2510270" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EventName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(100)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EventDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>339807</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>81767</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Text Box 17"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16189407" y="8202386"/>
+          <a:ext cx="1570760" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EventAttendance</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>492950</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>564820</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Text Box 18"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15732950" y="8526235"/>
+          <a:ext cx="2510270" cy="665389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AttendanceID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (PK)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EventID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(5) (FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1500"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>492950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>48986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>564820</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Text Box 19"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15732950" y="9192986"/>
+          <a:ext cx="2510270" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>PresentStatus</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> bit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>90551</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>442112</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27895</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Text Box 20"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12282551" y="5419045"/>
+          <a:ext cx="1570761" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Members</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226622</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>298494</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Text Box 21"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11809022" y="5742895"/>
+          <a:ext cx="2510272" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>RenewalID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226622</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>18370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>298494</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>189820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Text Box 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11809022" y="6304870"/>
+          <a:ext cx="2510272" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberNumber </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>varchar(10)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>FirstName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MiddleName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LastName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Email</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(30)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(15)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Gender </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>varchar(10)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>StartDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>CurrentFlag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> bit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BirthDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> date</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>42924</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>170770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>394485</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Text Box 26"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12234924" y="8933770"/>
+          <a:ext cx="1570761" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberAddress</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>178995</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>113620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>250867</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104095</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Text Box 27"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11761395" y="9257620"/>
+          <a:ext cx="2510272" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AddressID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int(FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>178995</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>104095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>250867</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Text Box 28"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11761395" y="9819595"/>
+          <a:ext cx="2510272" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AddressType</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AddressLine1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AddressLine2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>City</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(35)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>StateProvince</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(25)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>PostalCode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(15)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>166008</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>540082</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Text Box 26"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12268361" y="3429000"/>
+          <a:ext cx="1584309" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberInterest</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>324592</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>396464</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51707</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Text Box 27"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11906992" y="3752850"/>
+          <a:ext cx="2510272" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MemberID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>324592</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>396464</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>155831</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Text Box 28"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11906992" y="4053332"/>
+          <a:ext cx="2510272" cy="864999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Interest1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(20)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Interest2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(20)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Interest3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(20)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>495978</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>21151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>237939</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Text Box 20"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="20003178" y="5736151"/>
+          <a:ext cx="1570761" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Host</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>42242</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>154501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>100533</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Text Box 21"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19549442" y="6060001"/>
+          <a:ext cx="2496691" cy="308823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>HostID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>55849</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>114140</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Text Box 22"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19563049" y="6377048"/>
+          <a:ext cx="2496691" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>FirstName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>MiddleName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LastName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Email</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(30)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Phone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(15)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Gender</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(10)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>StartDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>CurrentFlag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> bit</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>BirthDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> date</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>576572</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>318532</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Text Box 23"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="23131772" y="6261328"/>
+          <a:ext cx="1570760" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>HostAddress</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>107126</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>178996</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>98653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Text Box 24"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22662326" y="6585178"/>
+          <a:ext cx="2510270" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FDD49D"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AddressID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>HostID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> int (FK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>107126</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>98653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>178996</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7486</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Text Box 25"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22662326" y="7147153"/>
+          <a:ext cx="2510270" cy="1242333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DCFF85"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AddressLine1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>AddressLine2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(50)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>City</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(35)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>StateProvince</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(25)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>PostalCode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(15)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>598838</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>118412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>42242</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Elbow Connector 70"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="1"/>
+          <a:endCxn id="51" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="18277238" y="6214412"/>
+          <a:ext cx="1272204" cy="775577"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>100533</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>118413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>107126</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8166</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Elbow Connector 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="3"/>
+          <a:endCxn id="69" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22046133" y="6214413"/>
+          <a:ext cx="616193" cy="651753"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>96116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Elbow Connector 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="1"/>
+          <a:endCxn id="48" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7960180" y="4668116"/>
+          <a:ext cx="54429" cy="2405650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 519997"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>178996</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226623</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="1"/>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="11761396" y="6023882"/>
+          <a:ext cx="47627" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 579980"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>492950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>526968</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Elbow Connector 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="1"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="15732950" y="6989990"/>
+          <a:ext cx="34018" cy="1868940"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 771997"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226622</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>492950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Elbow Connector 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="1"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="11809022" y="6023882"/>
+          <a:ext cx="3923928" cy="2835047"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5826"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226622</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>324592</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Elbow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="1"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="11809022" y="3902529"/>
+          <a:ext cx="97970" cy="2121354"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -233337"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>298495</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>422442</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Elbow Connector 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="1"/>
+          <a:endCxn id="57" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="14319295" y="4313463"/>
+          <a:ext cx="1343147" cy="1710419"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>126300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>96117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226622</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Elbow Connector 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="1"/>
+          <a:endCxn id="42" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10489500" y="4668117"/>
+          <a:ext cx="1319522" cy="1355767"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>383758</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>305067</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Text Box 11"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12506485" y="1905134"/>
+          <a:ext cx="1133582" cy="533823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LEGEND</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331011</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>402882</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Text Box 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11847602" y="2436165"/>
+          <a:ext cx="2496416" cy="584329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>NULL = RED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>NOT NULL = BLACK </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5315,8 +9823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5331,8 +9839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J12:AB39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5356,10 +9864,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA15" sqref="AA15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Database Model.xlsx
+++ b/Database Model.xlsx
@@ -5352,7 +5352,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t> varchar(45)</a:t>
+            <a:t> varchar(75)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -5381,7 +5381,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t> varchar(20)</a:t>
+            <a:t> varchar(30)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -9023,33 +9023,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>96116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>25266</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>178996</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226623</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="Elbow Connector 72"/>
+        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="1"/>
-          <a:endCxn id="48" idx="1"/>
+          <a:stCxn id="57" idx="1"/>
+          <a:endCxn id="60" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7960180" y="4668116"/>
-          <a:ext cx="54429" cy="2405650"/>
+          <a:off x="11761396" y="6023882"/>
+          <a:ext cx="47627" cy="3514725"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 519997"/>
+            <a:gd name="adj1" fmla="val 579980"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9075,33 +9075,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>178996</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>118382</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>226623</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>492950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>526968</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
+        <xdr:cNvPr id="75" name="Elbow Connector 74"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="57" idx="1"/>
-          <a:endCxn id="60" idx="1"/>
+          <a:stCxn id="51" idx="1"/>
+          <a:endCxn id="54" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11761396" y="6023882"/>
-          <a:ext cx="47627" cy="3514725"/>
+          <a:off x="15732950" y="6989990"/>
+          <a:ext cx="34018" cy="1868940"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 579980"/>
+            <a:gd name="adj1" fmla="val 771997"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9127,33 +9127,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226622</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>118382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>492950</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>131990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>526968</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>95930</xdr:rowOff>
+      <xdr:rowOff>95929</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Elbow Connector 74"/>
+        <xdr:cNvPr id="76" name="Elbow Connector 75"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="51" idx="1"/>
+          <a:stCxn id="57" idx="1"/>
           <a:endCxn id="54" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="15732950" y="6989990"/>
-          <a:ext cx="34018" cy="1868940"/>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="11809022" y="6023882"/>
+          <a:ext cx="3923928" cy="2835047"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 771997"/>
+            <a:gd name="adj1" fmla="val -5826"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9181,31 +9181,31 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>226622</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>324592</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>118382</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>492950</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95929</xdr:rowOff>
+      <xdr:rowOff>118383</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="Elbow Connector 75"/>
+        <xdr:cNvPr id="77" name="Elbow Connector 76"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="57" idx="1"/>
-          <a:endCxn id="54" idx="1"/>
+          <a:endCxn id="63" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="11809022" y="6023882"/>
-          <a:ext cx="3923928" cy="2835047"/>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="11809022" y="3902529"/>
+          <a:ext cx="97970" cy="2121354"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -5826"/>
+            <a:gd name="adj1" fmla="val -233337"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9231,34 +9231,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>226622</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>324592</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>298495</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>422442</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>118383</xdr:rowOff>
+      <xdr:rowOff>118382</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Elbow Connector 76"/>
+        <xdr:cNvPr id="78" name="Elbow Connector 77"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="57" idx="1"/>
-          <a:endCxn id="63" idx="1"/>
+          <a:stCxn id="45" idx="1"/>
+          <a:endCxn id="57" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="11809022" y="3902529"/>
-          <a:ext cx="97970" cy="2121354"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="14319295" y="4313463"/>
+          <a:ext cx="1343147" cy="1710419"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -233337"/>
-          </a:avLst>
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -9283,29 +9281,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>298495</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>422442</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>126300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>96117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>226622</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>118382</xdr:rowOff>
+      <xdr:rowOff>118384</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Elbow Connector 77"/>
+        <xdr:cNvPr id="79" name="Elbow Connector 78"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="45" idx="1"/>
-          <a:endCxn id="57" idx="3"/>
+          <a:stCxn id="57" idx="1"/>
+          <a:endCxn id="42" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="14319295" y="4313463"/>
-          <a:ext cx="1343147" cy="1710419"/>
+        <a:xfrm rot="10800000">
+          <a:off x="10489500" y="4668117"/>
+          <a:ext cx="1319522" cy="1355767"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9333,32 +9331,184 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>126300</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>383758</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>305067</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Text Box 11"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12506485" y="1905134"/>
+          <a:ext cx="1133582" cy="533823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>LEGEND</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>331011</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>402882</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Text Box 13"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11847602" y="2436165"/>
+          <a:ext cx="2496416" cy="584329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>NULL = RED</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>NOT NULL = BLACK </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>96117</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>226622</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>118384</xdr:rowOff>
+      <xdr:rowOff>96116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25266</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Elbow Connector 78"/>
+        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="57" idx="1"/>
-          <a:endCxn id="42" idx="3"/>
+          <a:stCxn id="42" idx="1"/>
+          <a:endCxn id="48" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="10489500" y="4668117"/>
-          <a:ext cx="1319522" cy="1355767"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7960180" y="4668116"/>
+          <a:ext cx="54429" cy="2405650"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 519997"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -9383,51 +9533,51 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>383758</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>211813</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>305067</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152957</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="Text Box 11"/>
+        <xdr:cNvPr id="80" name="Text Box 11"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12506485" y="1905134"/>
-          <a:ext cx="1133582" cy="533823"/>
+          <a:off x="15519849" y="1905134"/>
+          <a:ext cx="1788436" cy="533823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="39999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
         <a:lstStyle/>
@@ -9438,11 +9588,11 @@
           <a:r>
             <a:rPr lang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>LEGEND</a:t>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Address Type</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9451,81 +9601,101 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>331011</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>417602</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>150165</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>402882</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>162994</xdr:rowOff>
+      <xdr:rowOff>150164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>489473</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Text Box 13"/>
+        <xdr:cNvPr id="81" name="Text Box 13"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11847602" y="2436165"/>
-          <a:ext cx="2496416" cy="584329"/>
+          <a:off x="15113316" y="2436164"/>
+          <a:ext cx="2521157" cy="992835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="39999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>NULL = RED</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>NOT NULL = BLACK </a:t>
-          </a:r>
+            <a:t>1 = Billing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2=Mailing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3 = Both</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9839,7 +10009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J12:AB39"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
@@ -9864,8 +10034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database Model.xlsx
+++ b/Database Model.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\DataModel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptual Model" sheetId="2" r:id="rId1"/>
     <sheet name="Logical Model" sheetId="1" r:id="rId2"/>
     <sheet name="Physical Model" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,6 +80,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -96,7 +104,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="Rectangle 1"/>
+        <xdr:cNvPr id="2050" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -109,23 +123,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -145,7 +166,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -177,7 +198,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2053" name="Rectangle 2"/>
+        <xdr:cNvPr id="2053" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -190,23 +217,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -238,7 +272,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2051" name="Rectangle 4"/>
+        <xdr:cNvPr id="2051" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -251,23 +291,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -299,7 +346,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2054" name="Rectangle 5"/>
+        <xdr:cNvPr id="2054" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -312,23 +365,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -360,7 +420,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2052" name="Rectangle 6"/>
+        <xdr:cNvPr id="2052" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -373,23 +439,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -409,7 +482,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -441,7 +514,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2059" name="Rectangle 12"/>
+        <xdr:cNvPr id="2059" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -454,23 +533,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -490,7 +576,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -522,7 +608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2061" name="Rectangle 19"/>
+        <xdr:cNvPr id="2061" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -535,23 +627,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -571,7 +670,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -603,7 +702,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2063" name="Rectangle 21"/>
+        <xdr:cNvPr id="2063" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -616,23 +721,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -664,7 +776,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2064" name="Rectangle 3"/>
+        <xdr:cNvPr id="2064" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -677,23 +795,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -725,7 +850,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2066" name="Rectangle 10"/>
+        <xdr:cNvPr id="2066" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -738,23 +869,30 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:srgbClr val="548DD4"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
+        <a:ln>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -774,7 +912,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
+          <a:pPr algn="ctr" rtl="0">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -806,7 +944,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -823,16 +967,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -853,7 +997,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvPr id="3" name="Elbow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2053" idx="1"/>
           <a:endCxn id="2059" idx="1"/>
@@ -875,16 +1025,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -905,7 +1055,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Elbow Connector 10"/>
+        <xdr:cNvPr id="11" name="Elbow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2053" idx="1"/>
           <a:endCxn id="2050" idx="3"/>
@@ -925,16 +1081,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -955,7 +1111,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
+        <xdr:cNvPr id="15" name="Elbow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2050" idx="1"/>
           <a:endCxn id="2054" idx="1"/>
@@ -977,16 +1139,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -1007,7 +1169,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvPr id="18" name="Elbow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2051" idx="3"/>
           <a:endCxn id="2053" idx="3"/>
@@ -1029,16 +1197,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -1059,7 +1227,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Elbow Connector 21"/>
+        <xdr:cNvPr id="22" name="Elbow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2053" idx="1"/>
           <a:endCxn id="2061" idx="1"/>
@@ -1081,16 +1255,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -1111,7 +1285,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Elbow Connector 23"/>
+        <xdr:cNvPr id="24" name="Elbow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2064" idx="0"/>
           <a:endCxn id="2063" idx="3"/>
@@ -1134,16 +1314,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -1164,7 +1344,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Elbow Connector 25"/>
+        <xdr:cNvPr id="26" name="Elbow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2064" idx="3"/>
           <a:endCxn id="2066" idx="2"/>
@@ -1187,16 +1373,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -1217,7 +1403,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Elbow Connector 27"/>
+        <xdr:cNvPr id="28" name="Elbow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2053" idx="1"/>
           <a:endCxn id="2052" idx="0"/>
@@ -1240,16 +1432,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -1270,7 +1462,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Elbow Connector 30"/>
+        <xdr:cNvPr id="31" name="Elbow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2063" idx="1"/>
           <a:endCxn id="2052" idx="0"/>
@@ -1293,16 +1491,16 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
@@ -1328,7 +1526,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1096" name="Text Box 2"/>
+        <xdr:cNvPr id="1096" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1396,7 +1600,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1095" name="Text Box 6"/>
+        <xdr:cNvPr id="1095" name="Text Box 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1536,7 +1746,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1094" name="Text Box 7"/>
+        <xdr:cNvPr id="1094" name="Text Box 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1644,7 +1860,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1075" name="Text Box 8"/>
+        <xdr:cNvPr id="1075" name="Text Box 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1712,7 +1934,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1074" name="Text Box 9"/>
+        <xdr:cNvPr id="1074" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1800,7 +2028,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1073" name="Text Box 10"/>
+        <xdr:cNvPr id="1073" name="Text Box 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1888,7 +2122,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1093" name="Text Box 11"/>
+        <xdr:cNvPr id="1093" name="Text Box 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1956,7 +2196,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1092" name="Text Box 12"/>
+        <xdr:cNvPr id="1092" name="Text Box 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2058,7 +2304,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1091" name="Text Box 13"/>
+        <xdr:cNvPr id="1091" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2189,7 +2441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="Text Box 14"/>
+        <xdr:cNvPr id="1078" name="Text Box 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2257,7 +2515,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1077" name="Text Box 15"/>
+        <xdr:cNvPr id="1077" name="Text Box 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2374,7 +2638,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="Text Box 16"/>
+        <xdr:cNvPr id="1076" name="Text Box 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2488,7 +2758,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1090" name="Text Box 17"/>
+        <xdr:cNvPr id="1090" name="Text Box 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2556,7 +2832,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1089" name="Text Box 18"/>
+        <xdr:cNvPr id="1089" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2713,7 +2995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1088" name="Text Box 19"/>
+        <xdr:cNvPr id="1088" name="Text Box 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2781,7 +3069,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1081" name="Text Box 20"/>
+        <xdr:cNvPr id="1081" name="Text Box 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2849,7 +3143,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1080" name="Text Box 21"/>
+        <xdr:cNvPr id="1080" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2977,7 +3277,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1079" name="Text Box 22"/>
+        <xdr:cNvPr id="1079" name="Text Box 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3219,7 +3525,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1084" name="Text Box 26"/>
+        <xdr:cNvPr id="1084" name="Text Box 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3287,7 +3599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1083" name="Text Box 27"/>
+        <xdr:cNvPr id="1083" name="Text Box 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3415,7 +3733,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1082" name="Text Box 28"/>
+        <xdr:cNvPr id="1082" name="Text Box 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3603,7 +3927,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Text Box 26"/>
+        <xdr:cNvPr id="74" name="Text Box 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3666,20 +3996,26 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>299358</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>183696</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Text Box 27"/>
+        <xdr:cNvPr id="75" name="Text Box 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9500507" y="836839"/>
-          <a:ext cx="2562226" cy="299357"/>
+          <a:off x="9305677" y="836839"/>
+          <a:ext cx="2510272" cy="531297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3717,6 +4053,20 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:t>InterestID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>Member ID</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -3734,26 +4084,32 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>213632</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>184821</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>299358</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>97320</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="Text Box 28"/>
+        <xdr:cNvPr id="76" name="Text Box 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9500507" y="1137321"/>
-          <a:ext cx="2562226" cy="864999"/>
+          <a:off x="9305677" y="1362457"/>
+          <a:ext cx="2510272" cy="334724"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3791,56 +4147,19 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Interest 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Interest 2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Interest 3</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>Interest</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3861,7 +4180,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Text Box 20"/>
+        <xdr:cNvPr id="77" name="Text Box 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3929,7 +4254,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Text Box 21"/>
+        <xdr:cNvPr id="78" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4037,7 +4368,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="Text Box 22"/>
+        <xdr:cNvPr id="79" name="Text Box 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4265,7 +4602,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Text Box 23"/>
+        <xdr:cNvPr id="80" name="Text Box 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4333,7 +4676,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Text Box 24"/>
+        <xdr:cNvPr id="81" name="Text Box 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4461,7 +4810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="Text Box 25"/>
+        <xdr:cNvPr id="82" name="Text Box 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4629,7 +4984,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Elbow Connector 20"/>
+        <xdr:cNvPr id="21" name="Elbow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="78" idx="1"/>
           <a:endCxn id="1077" idx="3"/>
@@ -4679,7 +5040,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Elbow Connector 22"/>
+        <xdr:cNvPr id="23" name="Elbow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="78" idx="3"/>
           <a:endCxn id="81" idx="1"/>
@@ -4729,7 +5096,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Elbow Connector 24"/>
+        <xdr:cNvPr id="25" name="Elbow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="1095" idx="1"/>
           <a:endCxn id="1092" idx="1"/>
@@ -4781,7 +5154,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Elbow Connector 30"/>
+        <xdr:cNvPr id="31" name="Elbow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="1080" idx="1"/>
           <a:endCxn id="1083" idx="1"/>
@@ -4833,7 +5212,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="Elbow Connector 83"/>
+        <xdr:cNvPr id="84" name="Elbow Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="1077" idx="1"/>
           <a:endCxn id="1089" idx="1"/>
@@ -4885,7 +5270,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1056" name="Elbow Connector 1055"/>
+        <xdr:cNvPr id="1056" name="Elbow Connector 1055">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="1080" idx="1"/>
           <a:endCxn id="1089" idx="1"/>
@@ -4927,7 +5318,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>115662</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>34018</xdr:rowOff>
+      <xdr:rowOff>149988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -4937,7 +5328,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1058" name="Elbow Connector 1057"/>
+        <xdr:cNvPr id="1058" name="Elbow Connector 1057">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="1080" idx="1"/>
           <a:endCxn id="75" idx="1"/>
@@ -4945,8 +5342,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="9207707" y="986518"/>
-          <a:ext cx="97970" cy="2121354"/>
+          <a:off x="9207707" y="1102488"/>
+          <a:ext cx="97970" cy="2005384"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4989,7 +5386,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1060" name="Elbow Connector 1059"/>
+        <xdr:cNvPr id="1060" name="Elbow Connector 1059">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="1074" idx="1"/>
           <a:endCxn id="1080" idx="3"/>
@@ -5039,7 +5442,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1062" name="Elbow Connector 1061"/>
+        <xdr:cNvPr id="1062" name="Elbow Connector 1061">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="1080" idx="1"/>
           <a:endCxn id="1095" idx="3"/>
@@ -5094,7 +5503,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Text Box 2"/>
+        <xdr:cNvPr id="41" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5162,7 +5577,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Text Box 6"/>
+        <xdr:cNvPr id="42" name="Text Box 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5297,7 +5718,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Text Box 7"/>
+        <xdr:cNvPr id="43" name="Text Box 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5432,7 +5859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Text Box 8"/>
+        <xdr:cNvPr id="44" name="Text Box 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5500,7 +5933,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Text Box 9"/>
+        <xdr:cNvPr id="45" name="Text Box 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5597,7 +6036,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Text Box 10"/>
+        <xdr:cNvPr id="46" name="Text Box 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5703,7 +6148,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Text Box 11"/>
+        <xdr:cNvPr id="47" name="Text Box 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5771,7 +6222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Text Box 12"/>
+        <xdr:cNvPr id="48" name="Text Box 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5891,7 +6348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Text Box 13"/>
+        <xdr:cNvPr id="49" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6049,7 +6512,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Text Box 14"/>
+        <xdr:cNvPr id="50" name="Text Box 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6117,7 +6586,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Text Box 15"/>
+        <xdr:cNvPr id="51" name="Text Box 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6252,7 +6727,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Text Box 16"/>
+        <xdr:cNvPr id="52" name="Text Box 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6384,7 +6865,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Text Box 17"/>
+        <xdr:cNvPr id="53" name="Text Box 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6452,7 +6939,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Text Box 18"/>
+        <xdr:cNvPr id="54" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6636,7 +7129,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Text Box 19"/>
+        <xdr:cNvPr id="55" name="Text Box 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6713,7 +7212,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Text Box 20"/>
+        <xdr:cNvPr id="56" name="Text Box 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6781,7 +7286,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Text Box 21"/>
+        <xdr:cNvPr id="57" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6927,7 +7438,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Text Box 22"/>
+        <xdr:cNvPr id="58" name="Text Box 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7265,7 +7782,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Text Box 26"/>
+        <xdr:cNvPr id="59" name="Text Box 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7333,7 +7856,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Text Box 27"/>
+        <xdr:cNvPr id="60" name="Text Box 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7479,7 +8008,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Text Box 28"/>
+        <xdr:cNvPr id="61" name="Text Box 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7721,7 +8256,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Text Box 26"/>
+        <xdr:cNvPr id="62" name="Text Box 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7784,20 +8325,26 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>396464</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51707</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Text Box 27"/>
+        <xdr:cNvPr id="63" name="Text Box 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11906992" y="3752850"/>
-          <a:ext cx="2510272" cy="299357"/>
+          <a:off x="11841183" y="3752850"/>
+          <a:ext cx="2496417" cy="542059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7835,6 +8382,35 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
+            <a:t>InterestID </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>int (PK)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
             <a:t>MemberID</a:t>
           </a:r>
           <a:r>
@@ -7844,7 +8420,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t> int (PK)</a:t>
+            <a:t> int (FK)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -7861,26 +8437,32 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>324592</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52832</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>396464</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>155831</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>51956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Text Box 28"/>
+        <xdr:cNvPr id="64" name="Text Box 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11906992" y="4053332"/>
-          <a:ext cx="2510272" cy="864999"/>
+          <a:off x="11841183" y="4295788"/>
+          <a:ext cx="2496417" cy="328168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7918,7 +8500,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>Interest1</a:t>
+            <a:t>Interest</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -7929,58 +8511,6 @@
             </a:rPr>
             <a:t> varchar(20)</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Interest2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> varchar(20)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Interest3</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> varchar(20)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
@@ -8015,7 +8545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Text Box 20"/>
+        <xdr:cNvPr id="65" name="Text Box 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8083,7 +8619,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Text Box 21"/>
+        <xdr:cNvPr id="66" name="Text Box 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8200,7 +8742,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Text Box 22"/>
+        <xdr:cNvPr id="67" name="Text Box 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8509,7 +9057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Text Box 23"/>
+        <xdr:cNvPr id="68" name="Text Box 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8577,7 +9131,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Text Box 24"/>
+        <xdr:cNvPr id="69" name="Text Box 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8723,7 +9283,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Text Box 25"/>
+        <xdr:cNvPr id="70" name="Text Box 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8936,7 +9502,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Elbow Connector 70"/>
+        <xdr:cNvPr id="71" name="Elbow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="66" idx="1"/>
           <a:endCxn id="51" idx="3"/>
@@ -8986,7 +9558,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="Elbow Connector 71"/>
+        <xdr:cNvPr id="72" name="Elbow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="66" idx="3"/>
           <a:endCxn id="69" idx="1"/>
@@ -9036,7 +9614,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
+        <xdr:cNvPr id="74" name="Elbow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="57" idx="1"/>
           <a:endCxn id="60" idx="1"/>
@@ -9088,7 +9672,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="Elbow Connector 74"/>
+        <xdr:cNvPr id="75" name="Elbow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="51" idx="1"/>
           <a:endCxn id="54" idx="1"/>
@@ -9140,7 +9730,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="Elbow Connector 75"/>
+        <xdr:cNvPr id="76" name="Elbow Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="57" idx="1"/>
           <a:endCxn id="54" idx="1"/>
@@ -9181,18 +9777,24 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>226622</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92529</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>324592</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>118383</xdr:rowOff>
+      <xdr:rowOff>118384</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Elbow Connector 76"/>
+        <xdr:cNvPr id="77" name="Elbow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="57" idx="1"/>
           <a:endCxn id="63" idx="1"/>
@@ -9200,8 +9802,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1">
-          <a:off x="11809022" y="3902529"/>
-          <a:ext cx="97970" cy="2121354"/>
+          <a:off x="11743213" y="4023881"/>
+          <a:ext cx="97970" cy="2000003"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9244,7 +9846,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Elbow Connector 77"/>
+        <xdr:cNvPr id="78" name="Elbow Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="45" idx="1"/>
           <a:endCxn id="57" idx="3"/>
@@ -9294,7 +9902,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="Elbow Connector 78"/>
+        <xdr:cNvPr id="79" name="Elbow Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="57" idx="1"/>
           <a:endCxn id="42" idx="3"/>
@@ -9344,7 +9958,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="Text Box 11"/>
+        <xdr:cNvPr id="86" name="Text Box 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9412,7 +10032,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Text Box 13"/>
+        <xdr:cNvPr id="88" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9494,7 +10120,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvPr id="3" name="Elbow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="42" idx="1"/>
           <a:endCxn id="48" idx="1"/>
@@ -9546,7 +10178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Text Box 11"/>
+        <xdr:cNvPr id="80" name="Text Box 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9614,7 +10252,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Text Box 13"/>
+        <xdr:cNvPr id="81" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9747,7 +10391,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9780,9 +10424,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9815,6 +10476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9990,11 +10668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10006,11 +10684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="J12:AB39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10031,11 +10709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView showGridLines="0" topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database Model.xlsx
+++ b/Database Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19980" windowHeight="9345" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conceptual Model" sheetId="2" r:id="rId1"/>
@@ -2429,323 +2429,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>293913</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>39460</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6804</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="Text Box 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13914663" y="3492954"/>
-          <a:ext cx="1602922" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="0099FF"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="39999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Events</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>436789</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>6804</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>140154</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1077" name="Text Box 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13438414" y="3816804"/>
-          <a:ext cx="2562225" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C6D9F1"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="39999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Event ID</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Host ID</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>436789</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>140154</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="Text Box 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13438414" y="4331154"/>
-          <a:ext cx="2562225" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="8DB3E2"/>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="39999"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Event Name</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Event Date</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
       <xdr:colOff>253092</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -4972,15 +4655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>522514</xdr:colOff>
+      <xdr:colOff>497528</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>59901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>582445</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>73478</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67232</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4993,13 +4676,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="78" idx="1"/>
-          <a:endCxn id="1077" idx="3"/>
+          <a:endCxn id="50" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="15675923" y="3298401"/>
-          <a:ext cx="1272204" cy="775577"/>
+          <a:off x="15650937" y="3298401"/>
+          <a:ext cx="1297190" cy="959831"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -5201,12 +4884,12 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>402771</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>73479</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67233</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>436789</xdr:colOff>
+      <xdr:colOff>411801</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>51521</xdr:rowOff>
     </xdr:to>
@@ -5220,18 +4903,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="1077" idx="1"/>
+          <a:stCxn id="50" idx="1"/>
           <a:endCxn id="1089" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="13131635" y="4073979"/>
-          <a:ext cx="34018" cy="1883042"/>
+          <a:off x="13131635" y="4258233"/>
+          <a:ext cx="9030" cy="1698788"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 771997"/>
+            <a:gd name="adj1" fmla="val 2631561"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -5483,6 +5166,423 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>411801</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>497528</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Text Box 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76720E55-857E-48AE-8A6E-2053BBCBD47B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13140665" y="3467658"/>
+          <a:ext cx="2510272" cy="1581150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="8DB3E2"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EventName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EventDate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>StartTime</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EndTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EDescription </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Comments</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>415264</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>500991</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Text Box 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE046693-2A54-465C-82DA-3363494A0C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13144128" y="2888674"/>
+          <a:ext cx="2510272" cy="582448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C6D9F1"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>EventID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HostID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>248021</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91478</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>373</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Text Box 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3484E5-20BD-4386-BEF3-4A48D80D47FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13583021" y="2567978"/>
+          <a:ext cx="1570761" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0099FF"/>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="39999"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Events</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6500,15 +6600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>380628</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:colOff>363310</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>18556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>115784</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
+      <xdr:colOff>98466</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151906</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6525,8 +6625,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="16230228" y="6408965"/>
-          <a:ext cx="1563956" cy="323850"/>
+          <a:off x="16122855" y="5543056"/>
+          <a:ext cx="1553566" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6574,15 +6674,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>526968</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>65315</xdr:rowOff>
+      <xdr:colOff>509650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>598838</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8165</xdr:rowOff>
+      <xdr:colOff>581520</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94756</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6599,8 +6699,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15766968" y="6732815"/>
-          <a:ext cx="2510270" cy="514350"/>
+          <a:off x="15663059" y="5866906"/>
+          <a:ext cx="2496416" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6715,15 +6815,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>526968</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>8165</xdr:rowOff>
+      <xdr:colOff>509650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>598838</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>189140</xdr:rowOff>
+      <xdr:colOff>581520</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6740,8 +6840,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="15766968" y="7247165"/>
-          <a:ext cx="2510270" cy="561975"/>
+          <a:off x="15663059" y="6381256"/>
+          <a:ext cx="2496416" cy="1221426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6825,9 +6925,119 @@
             </a:rPr>
             <a:t> date</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>StartTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> time(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EndTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> time(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EDescription </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>varchar(1000)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Comments</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t> varchar(1000)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
           </a:endParaRPr>
@@ -9490,15 +9700,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>598838</xdr:colOff>
+      <xdr:colOff>581521</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>118412</xdr:rowOff>
+      <xdr:rowOff>28081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>42242</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>131989</xdr:rowOff>
+      <xdr:colOff>42243</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>118413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9515,9 +9725,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="18277238" y="6214412"/>
-          <a:ext cx="1272204" cy="775577"/>
+        <a:xfrm rot="10800000">
+          <a:off x="18159476" y="6124081"/>
+          <a:ext cx="1279131" cy="90332"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -9661,14 +9871,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>492950</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>131990</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>526968</xdr:colOff>
+      <xdr:colOff>509650</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>95930</xdr:rowOff>
+      <xdr:rowOff>95929</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9686,12 +9896,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="15732950" y="6989990"/>
-          <a:ext cx="34018" cy="1868940"/>
+          <a:off x="15646359" y="6124080"/>
+          <a:ext cx="16700" cy="2734849"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 771997"/>
+            <a:gd name="adj1" fmla="val 1468862"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -10687,8 +10897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="J12:AB39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView showGridLines="0" topLeftCell="M3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10712,8 +10922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AE44" sqref="AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
